--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vip-Vipr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vip-Vipr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,19 +531,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1897233333333334</v>
+        <v>0.7349876666666667</v>
       </c>
       <c r="H2">
-        <v>0.5691700000000001</v>
+        <v>2.204963</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2939176666666667</v>
+        <v>0.08219466666666668</v>
       </c>
       <c r="N2">
-        <v>0.881753</v>
+        <v>0.246584</v>
       </c>
       <c r="O2">
-        <v>0.05105130446133038</v>
+        <v>0.01551908118057144</v>
       </c>
       <c r="P2">
-        <v>0.06158055498365354</v>
+        <v>0.01610836182747308</v>
       </c>
       <c r="Q2">
-        <v>0.05576303944555557</v>
+        <v>0.06041206626577779</v>
       </c>
       <c r="R2">
-        <v>0.50186735501</v>
+        <v>0.5437085963920001</v>
       </c>
       <c r="S2">
-        <v>0.05105130446133038</v>
+        <v>0.01551908118057144</v>
       </c>
       <c r="T2">
-        <v>0.06158055498365354</v>
+        <v>0.01610836182747308</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,19 +593,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1897233333333334</v>
+        <v>0.7349876666666667</v>
       </c>
       <c r="H3">
-        <v>0.5691700000000001</v>
+        <v>2.204963</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.08219466666666665</v>
+        <v>1.682868333333333</v>
       </c>
       <c r="N3">
-        <v>0.246584</v>
+        <v>5.048605</v>
       </c>
       <c r="O3">
-        <v>0.01427659997674257</v>
+        <v>0.3177404488678863</v>
       </c>
       <c r="P3">
-        <v>0.01722112606374939</v>
+        <v>0.3298054864224351</v>
       </c>
       <c r="Q3">
-        <v>0.01559424614222222</v>
+        <v>1.236887469623889</v>
       </c>
       <c r="R3">
-        <v>0.14034821528</v>
+        <v>11.131987226615</v>
       </c>
       <c r="S3">
-        <v>0.01427659997674257</v>
+        <v>0.3177404488678863</v>
       </c>
       <c r="T3">
-        <v>0.01722112606374939</v>
+        <v>0.3298054864224351</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.7349876666666667</v>
+      </c>
+      <c r="H4">
+        <v>2.204963</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.1897233333333334</v>
-      </c>
-      <c r="H4">
-        <v>0.5691700000000001</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.236503</v>
+        <v>0.581259</v>
       </c>
       <c r="N4">
-        <v>3.709509</v>
+        <v>1.162518</v>
       </c>
       <c r="O4">
-        <v>0.2147713400022968</v>
+        <v>0.1097468482294607</v>
       </c>
       <c r="P4">
-        <v>0.2590675880171177</v>
+        <v>0.0759427236761118</v>
       </c>
       <c r="Q4">
-        <v>0.2345934708366667</v>
+        <v>0.427218196139</v>
       </c>
       <c r="R4">
-        <v>2.11134123753</v>
+        <v>2.563309176834</v>
       </c>
       <c r="S4">
-        <v>0.2147713400022968</v>
+        <v>0.1097468482294607</v>
       </c>
       <c r="T4">
-        <v>0.2590675880171177</v>
+        <v>0.0759427236761118</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,19 +717,19 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1897233333333334</v>
+        <v>0.7349876666666667</v>
       </c>
       <c r="H5">
-        <v>0.5691700000000001</v>
+        <v>2.204963</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,96 +738,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.9532075</v>
+        <v>2.950039666666667</v>
       </c>
       <c r="N5">
-        <v>5.906415</v>
+        <v>8.850119000000001</v>
       </c>
       <c r="O5">
-        <v>0.5129500956162928</v>
+        <v>0.5569936217220816</v>
       </c>
       <c r="P5">
-        <v>0.412496825827387</v>
+        <v>0.5781434280739799</v>
       </c>
       <c r="Q5">
-        <v>0.5602923709250001</v>
+        <v>2.168242771177445</v>
       </c>
       <c r="R5">
-        <v>3.36175422555</v>
+        <v>19.514184940597</v>
       </c>
       <c r="S5">
-        <v>0.5129500956162928</v>
+        <v>0.5569936217220816</v>
       </c>
       <c r="T5">
-        <v>0.412496825827387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.1897233333333334</v>
-      </c>
-      <c r="H6">
-        <v>0.5691700000000001</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>1.191477</v>
-      </c>
-      <c r="N6">
-        <v>3.574431</v>
-      </c>
-      <c r="O6">
-        <v>0.2069506599433374</v>
-      </c>
-      <c r="P6">
-        <v>0.2496339051080923</v>
-      </c>
-      <c r="Q6">
-        <v>0.22605098803</v>
-      </c>
-      <c r="R6">
-        <v>2.03445889227</v>
-      </c>
-      <c r="S6">
-        <v>0.2069506599433374</v>
-      </c>
-      <c r="T6">
-        <v>0.2496339051080923</v>
+        <v>0.5781434280739799</v>
       </c>
     </row>
   </sheetData>
